--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnofra\Downloads\manish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Brand Title</t>
   </si>
@@ -60,12 +60,15 @@
   </si>
   <si>
     <t>Vendor Purchase Rate</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +460,7 @@
     <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,6 +496,9 @@
       </c>
       <c r="L1" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,8 +139,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -158,8 +159,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,26 +443,27 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Brand Title</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Basic Rate</t>
+  </si>
+  <si>
+    <t>Net Landing Rate</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,14 +462,16 @@
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,18 +497,24 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Brand Title</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Net Landing Rate</t>
+  </si>
+  <si>
+    <t>Vendor Code</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,14 +467,15 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,18 +507,21 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Headquaters-New\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Brand Title</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Vendor Code</t>
+  </si>
+  <si>
+    <t>HSN</t>
   </si>
 </sst>
 </file>
@@ -449,79 +452,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Brand Title</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>HSN</t>
+  </si>
+  <si>
+    <t>Weight (Single Box)</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,17 +472,18 @@
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,27 +512,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/public/uploads/excel-formats/product-master.xlsx
+++ b/public/uploads/excel-formats/product-master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Headquaters-New\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Brand Title</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Weight (Single Box)</t>
+  </si>
+  <si>
+    <t>Portal Code</t>
+  </si>
+  <si>
+    <t>Item Code</t>
   </si>
 </sst>
 </file>
@@ -455,87 +461,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
